--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_4_5_1.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_4_5_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="楼层" sheetId="28" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="105">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,26 @@
   </si>
   <si>
     <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为室外风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,12 +807,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.25" customWidth="1"/>
+    <col min="3" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -806,7 +826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -820,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -835,7 +855,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,7 +870,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -865,7 +885,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -880,7 +900,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -895,7 +915,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -910,7 +930,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -925,7 +945,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -940,7 +960,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -955,7 +975,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -970,7 +990,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1000,7 +1020,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1015,7 +1035,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1030,7 +1050,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1045,7 +1065,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1069,19 +1089,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1097,8 +1118,14 @@
       <c r="E1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1114,8 +1141,14 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1131,8 +1164,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1148,8 +1187,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1165,8 +1210,14 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1182,8 +1233,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1199,8 +1256,14 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1216,8 +1279,14 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1233,8 +1302,14 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1250,8 +1325,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1267,8 +1348,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1284,8 +1371,14 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1301,8 +1394,14 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1318,8 +1417,14 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1335,8 +1440,14 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1352,8 +1463,14 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1369,8 +1486,14 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1386,8 +1509,14 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1403,8 +1532,14 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1420,8 +1555,14 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1437,8 +1578,14 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1454,8 +1601,14 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1471,8 +1624,14 @@
       <c r="E23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1488,8 +1647,14 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1504,6 +1669,12 @@
       </c>
       <c r="E25" s="2">
         <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1515,26 +1686,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.75" customWidth="1"/>
-    <col min="15" max="15" width="55.375" customWidth="1"/>
+    <col min="9" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="18.7265625" customWidth="1"/>
+    <col min="16" max="16" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1563,25 +1734,28 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1610,25 +1784,28 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
         <v>499</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1657,25 +1834,28 @@
         <v>1</v>
       </c>
       <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1704,25 +1884,28 @@
         <v>1</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>499</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1751,21 +1934,24 @@
         <v>1</v>
       </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>600</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1778,26 +1964,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.75" customWidth="1"/>
-    <col min="15" max="15" width="55.375" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="18.7265625" customWidth="1"/>
+    <col min="16" max="16" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1829,18 +2015,21 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1853,26 +2042,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18.75" customWidth="1"/>
-    <col min="15" max="15" width="55.375" customWidth="1"/>
+    <col min="5" max="5" width="32.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" customWidth="1"/>
+    <col min="11" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="18.7265625" customWidth="1"/>
+    <col min="16" max="16" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1898,28 +2087,31 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1945,28 +2137,31 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>600</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
       <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1992,28 +2187,31 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2039,28 +2237,31 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>499</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
       <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2086,28 +2287,31 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>600</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
       <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2133,28 +2337,31 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>600</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
       <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2180,28 +2387,31 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>600</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
       <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2227,24 +2437,27 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>600</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
       <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2257,20 +2470,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2286,8 +2499,11 @@
       <c r="E1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2300,8 +2516,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2311,8 +2530,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2325,8 +2547,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2339,8 +2564,11 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2353,8 +2581,11 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2367,8 +2598,11 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2381,8 +2615,11 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2394,6 +2631,9 @@
       </c>
       <c r="D9" t="b">
         <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2410,14 +2650,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="2" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2457,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2477,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2497,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2517,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2537,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2557,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2577,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2597,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2617,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2637,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2657,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2677,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2697,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2731,12 +2971,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2744,7 +2984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2752,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2760,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
